--- a/lin_R1_by_R2 (1.1 by 1)1000.xlsx
+++ b/lin_R1_by_R2 (1.1 by 1)1000.xlsx
@@ -15,7 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>freq_to_store</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,6 +360,152 @@
         <v>-0.07977312273894237</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.6553507622343828</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.083963140009709</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.6235541542005882</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.302858993941274</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.158053119045587</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.234678735156487</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.590070082267051</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.296406692070468</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.4445572112267</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.148918488151311</v>
+      </c>
+      <c r="K3" t="n">
+        <v>16.553507622343826</v>
+      </c>
+      <c r="L3" t="n">
+        <v>20.839631400097087</v>
+      </c>
+      <c r="M3" t="n">
+        <v>26.235541542005883</v>
+      </c>
+      <c r="N3" t="n">
+        <v>33.02858993941274</v>
+      </c>
+      <c r="O3" t="n">
+        <v>41.58053119045587</v>
+      </c>
+      <c r="P3" t="n">
+        <v>52.34678735156487</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>65.9007008226705</v>
+      </c>
+      <c r="R3" t="n">
+        <v>82.96406692070468</v>
+      </c>
+      <c r="S3" t="n">
+        <v>104.44557211226699</v>
+      </c>
+      <c r="T3" t="n">
+        <v>131.4891848815131</v>
+      </c>
+      <c r="U3" t="n">
+        <v>165.53507622343827</v>
+      </c>
+      <c r="V3" t="n">
+        <v>208.39631400097088</v>
+      </c>
+      <c r="W3" t="n">
+        <v>262.3554154200588</v>
+      </c>
+      <c r="X3" t="n">
+        <v>330.2858993941274</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>415.8053119045587</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>523.4678735156486</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>659.0070082267051</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>829.6406692070468</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1044.45572112267</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1314.891848815131</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1655.3507622343827</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2083.9631400097087</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2623.5541542005885</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3302.858993941274</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4158.053119045587</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5234.678735156487</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6590.070082267051</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8296.406692070468</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10444.557211226698</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13148.91848815131</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>16553.507622343826</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>20839.63140009709</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>26235.541542005885</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>33028.58993941274</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>41580.53119045587</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>52346.78735156487</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>65900.70082267051</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>82964.06692070469</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lin_R1_by_R2 (1.1 by 1)1000.xlsx
+++ b/lin_R1_by_R2 (1.1 by 1)1000.xlsx
@@ -811,6 +811,152 @@
         <v>-0.07977350384877838</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.6553507622343828</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.083963140009709</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.6235541542005882</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.302858993941274</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.158053119045587</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.234678735156487</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.590070082267051</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.296406692070468</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.4445572112267</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.148918488151311</v>
+      </c>
+      <c r="K3" t="n">
+        <v>16.553507622343826</v>
+      </c>
+      <c r="L3" t="n">
+        <v>20.839631400097087</v>
+      </c>
+      <c r="M3" t="n">
+        <v>26.235541542005883</v>
+      </c>
+      <c r="N3" t="n">
+        <v>33.02858993941274</v>
+      </c>
+      <c r="O3" t="n">
+        <v>41.58053119045587</v>
+      </c>
+      <c r="P3" t="n">
+        <v>52.34678735156487</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>65.9007008226705</v>
+      </c>
+      <c r="R3" t="n">
+        <v>82.96406692070468</v>
+      </c>
+      <c r="S3" t="n">
+        <v>104.44557211226699</v>
+      </c>
+      <c r="T3" t="n">
+        <v>131.4891848815131</v>
+      </c>
+      <c r="U3" t="n">
+        <v>165.53507622343827</v>
+      </c>
+      <c r="V3" t="n">
+        <v>208.39631400097088</v>
+      </c>
+      <c r="W3" t="n">
+        <v>262.3554154200588</v>
+      </c>
+      <c r="X3" t="n">
+        <v>330.2858993941274</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>415.8053119045587</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>523.4678735156486</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>659.0070082267051</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>829.6406692070468</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1044.45572112267</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1314.891848815131</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1655.3507622343827</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2083.9631400097087</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2623.5541542005885</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3302.858993941274</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4158.053119045587</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5234.678735156487</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6590.070082267051</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8296.406692070468</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10444.557211226698</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13148.91848815131</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>16553.507622343826</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>20839.63140009709</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>26235.541542005885</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>33028.58993941274</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>41580.53119045587</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>52346.78735156487</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>65900.70082267051</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>82964.06692070469</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1114,6 +1260,152 @@
       </c>
       <c r="AV2" t="n">
         <v>-0.07977355829589954</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.6553507622343828</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.083963140009709</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.6235541542005882</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.302858993941274</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.158053119045587</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.234678735156487</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.590070082267051</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.296406692070468</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.4445572112267</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.148918488151311</v>
+      </c>
+      <c r="K3" t="n">
+        <v>16.553507622343826</v>
+      </c>
+      <c r="L3" t="n">
+        <v>20.839631400097087</v>
+      </c>
+      <c r="M3" t="n">
+        <v>26.235541542005883</v>
+      </c>
+      <c r="N3" t="n">
+        <v>33.02858993941274</v>
+      </c>
+      <c r="O3" t="n">
+        <v>41.58053119045587</v>
+      </c>
+      <c r="P3" t="n">
+        <v>52.34678735156487</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>65.9007008226705</v>
+      </c>
+      <c r="R3" t="n">
+        <v>82.96406692070468</v>
+      </c>
+      <c r="S3" t="n">
+        <v>104.44557211226699</v>
+      </c>
+      <c r="T3" t="n">
+        <v>131.4891848815131</v>
+      </c>
+      <c r="U3" t="n">
+        <v>165.53507622343827</v>
+      </c>
+      <c r="V3" t="n">
+        <v>208.39631400097088</v>
+      </c>
+      <c r="W3" t="n">
+        <v>262.3554154200588</v>
+      </c>
+      <c r="X3" t="n">
+        <v>330.2858993941274</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>415.8053119045587</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>523.4678735156486</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>659.0070082267051</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>829.6406692070468</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1044.45572112267</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1314.891848815131</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1655.3507622343827</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2083.9631400097087</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2623.5541542005885</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3302.858993941274</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4158.053119045587</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5234.678735156487</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6590.070082267051</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8296.406692070468</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10444.557211226698</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13148.91848815131</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>16553.507622343826</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>20839.63140009709</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>26235.541542005885</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>33028.58993941274</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>41580.53119045587</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>52346.78735156487</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>65900.70082267051</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>82964.06692070469</v>
       </c>
     </row>
   </sheetData>
@@ -1421,6 +1713,152 @@
         <v>-0.07977312271759683</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.6553507622343828</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.083963140009709</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.6235541542005882</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.302858993941274</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.158053119045587</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.234678735156487</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.590070082267051</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.296406692070468</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.4445572112267</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.148918488151311</v>
+      </c>
+      <c r="K3" t="n">
+        <v>16.553507622343826</v>
+      </c>
+      <c r="L3" t="n">
+        <v>20.839631400097087</v>
+      </c>
+      <c r="M3" t="n">
+        <v>26.235541542005883</v>
+      </c>
+      <c r="N3" t="n">
+        <v>33.02858993941274</v>
+      </c>
+      <c r="O3" t="n">
+        <v>41.58053119045587</v>
+      </c>
+      <c r="P3" t="n">
+        <v>52.34678735156487</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>65.9007008226705</v>
+      </c>
+      <c r="R3" t="n">
+        <v>82.96406692070468</v>
+      </c>
+      <c r="S3" t="n">
+        <v>104.44557211226699</v>
+      </c>
+      <c r="T3" t="n">
+        <v>131.4891848815131</v>
+      </c>
+      <c r="U3" t="n">
+        <v>165.53507622343827</v>
+      </c>
+      <c r="V3" t="n">
+        <v>208.39631400097088</v>
+      </c>
+      <c r="W3" t="n">
+        <v>262.3554154200588</v>
+      </c>
+      <c r="X3" t="n">
+        <v>330.2858993941274</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>415.8053119045587</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>523.4678735156486</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>659.0070082267051</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>829.6406692070468</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1044.45572112267</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1314.891848815131</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1655.3507622343827</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2083.9631400097087</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2623.5541542005885</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3302.858993941274</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4158.053119045587</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5234.678735156487</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6590.070082267051</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8296.406692070468</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10444.557211226698</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13148.91848815131</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>16553.507622343826</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>20839.63140009709</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>26235.541542005885</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>33028.58993941274</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>41580.53119045587</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>52346.78735156487</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>65900.70082267051</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>82964.06692070469</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lin_R1_by_R2 (1.1 by 1)1000.xlsx
+++ b/lin_R1_by_R2 (1.1 by 1)1000.xlsx
@@ -70,145 +70,145 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.7166664294643216</v>
+        <v>0.7166662910703737</v>
       </c>
       <c r="B1" t="n">
-        <v>0.7166662907264005</v>
+        <v>0.716666071386949</v>
       </c>
       <c r="C1" t="n">
-        <v>0.7166660708417889</v>
+        <v>0.7166657232126238</v>
       </c>
       <c r="D1" t="n">
-        <v>0.7166657223486044</v>
+        <v>0.716665171394608</v>
       </c>
       <c r="E1" t="n">
-        <v>0.716665170025233</v>
+        <v>0.7166642968247602</v>
       </c>
       <c r="F1" t="n">
-        <v>0.7166642946544555</v>
+        <v>0.7166629107319169</v>
       </c>
       <c r="G1" t="n">
-        <v>0.7166629072922368</v>
+        <v>0.7166607139402752</v>
       </c>
       <c r="H1" t="n">
-        <v>0.7166607084888029</v>
+        <v>0.7166572323040381</v>
       </c>
       <c r="I1" t="n">
-        <v>0.7166572236641704</v>
+        <v>0.7166517143926893</v>
       </c>
       <c r="J1" t="n">
-        <v>0.7166517006997573</v>
+        <v>0.7166429693694092</v>
       </c>
       <c r="K1" t="n">
-        <v>0.7166429476684174</v>
+        <v>0.7166291101369253</v>
       </c>
       <c r="L1" t="n">
-        <v>0.7166290757452881</v>
+        <v>0.7166071464802505</v>
       </c>
       <c r="M1" t="n">
-        <v>0.7166070919784957</v>
+        <v>0.7165723408167203</v>
       </c>
       <c r="N1" t="n">
-        <v>0.7165722544506133</v>
+        <v>0.7165171885729302</v>
       </c>
       <c r="O1" t="n">
-        <v>0.7165170517254068</v>
+        <v>0.716429805815568</v>
       </c>
       <c r="P1" t="n">
-        <v>0.7164295890110463</v>
+        <v>0.7162913829089704</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.7162910395082654</v>
+        <v>0.716072171613655</v>
       </c>
       <c r="R1" t="n">
-        <v>0.7160716278903487</v>
+        <v>0.7157251820672211</v>
       </c>
       <c r="S1" t="n">
-        <v>0.7157243216529385</v>
+        <v>0.7151763354887878</v>
       </c>
       <c r="T1" t="n">
-        <v>0.7151749751524346</v>
+        <v>0.7143092113356652</v>
       </c>
       <c r="U1" t="n">
-        <v>0.7143070636682846</v>
+        <v>0.7129417491153766</v>
       </c>
       <c r="V1" t="n">
-        <v>0.7129383660337449</v>
+        <v>0.7107914709542008</v>
       </c>
       <c r="W1" t="n">
-        <v>0.7107861606105288</v>
+        <v>0.7074255545298199</v>
       </c>
       <c r="X1" t="n">
-        <v>0.7074172650892728</v>
+        <v>0.7021939703472216</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.7021811418604152</v>
+        <v>0.6941514529000872</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.6941318629819158</v>
+        <v>0.6819938012124753</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.6819644870980063</v>
+        <v>0.6640734358278599</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.6640308750243563</v>
+        <v>0.638613667835414</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.6385545012186423</v>
+        <v>0.6042589548605594</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.6041814593496351</v>
+        <v>0.5609497207100589</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.5608556773615228</v>
+        <v>0.5106998728830964</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.5105954967802531</v>
+        <v>0.4574861883660109</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.45738059172513645</v>
+        <v>0.4058691634377955</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.4057707018998602</v>
+        <v>0.35916330074660485</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.3590764697251303</v>
+        <v>0.3185228970137404</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.31844796049436436</v>
+        <v>0.2833916052084654</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.2833264825738888</v>
+        <v>0.25260588246666793</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.2525483184421977</v>
+        <v>0.22523321083403575</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.2251818101048384</v>
+        <v>0.20076949309698955</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.20072356339086425</v>
+        <v>0.17893277457560158</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.1788918194676691</v>
+        <v>0.15947067853698224</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.1594341856526336</v>
+        <v>0.14212794785792163</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.14209542577672615</v>
+        <v>0.1266714810187771</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.12664249548949244</v>
+        <v>0.11289586772602965</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.11287003445441281</v>
+        <v>0.10061840343371005</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.10059537961568568</v>
+        <v>0.08967614517282987</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.08965562524262523</v>
+        <v>0.07992387684207883</v>
       </c>
       <c r="AV1" t="n">
         <v>0.07990558848450592</v>
@@ -216,145 +216,145 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-290.9103344975096</v>
+        <v>-231.18423967973592</v>
       </c>
       <c r="B2" t="n">
-        <v>-231.07845273941192</v>
+        <v>-183.63637068261278</v>
       </c>
       <c r="C2" t="n">
-        <v>-183.5523412213775</v>
+        <v>-145.86780805745056</v>
       </c>
       <c r="D2" t="n">
-        <v>-145.80106120007787</v>
+        <v>-115.86723812039871</v>
       </c>
       <c r="E2" t="n">
-        <v>-115.81421935333903</v>
+        <v>-92.03702112407828</v>
       </c>
       <c r="F2" t="n">
-        <v>-91.9949070046501</v>
+        <v>-73.10811111491377</v>
       </c>
       <c r="G2" t="n">
-        <v>-73.07465891268436</v>
+        <v>-58.072474607912305</v>
       </c>
       <c r="H2" t="n">
-        <v>-58.045902871122294</v>
+        <v>-46.12940912659088</v>
       </c>
       <c r="I2" t="n">
-        <v>-46.10830281334877</v>
+        <v>-36.64290287396491</v>
       </c>
       <c r="J2" t="n">
-        <v>-36.62613799609983</v>
+        <v>-29.107764780416762</v>
       </c>
       <c r="K2" t="n">
-        <v>-29.09444854699678</v>
+        <v>-23.12272122764752</v>
       </c>
       <c r="L2" t="n">
-        <v>-23.112144500581024</v>
+        <v>-18.369046746495105</v>
       </c>
       <c r="M2" t="n">
-        <v>-18.360646276289877</v>
+        <v>-14.593590686055643</v>
       </c>
       <c r="N2" t="n">
-        <v>-14.58691911662649</v>
+        <v>-11.595295943815074</v>
       </c>
       <c r="O2" t="n">
-        <v>-11.589997988935613</v>
+        <v>-9.214491793109532</v>
       </c>
       <c r="P2" t="n">
-        <v>-9.210285315715792</v>
+        <v>-7.324390538530752</v>
       </c>
       <c r="Q2" t="n">
-        <v>-7.321051525078687</v>
+        <v>-5.824335019423918</v>
       </c>
       <c r="R2" t="n">
-        <v>-5.821685648730257</v>
+        <v>-4.634437077856093</v>
       </c>
       <c r="S2" t="n">
-        <v>-4.632336248253521</v>
+        <v>-3.691320901210426</v>
       </c>
       <c r="T2" t="n">
-        <v>-3.6896567099983484</v>
+        <v>-2.9447434441877793</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.943427215852274</v>
+        <v>-2.3549098038733707</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.3538713432402982</v>
+        <v>-1.8903365006549995</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.8895203072826259</v>
+        <v>-1.5261413772108985</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.5255035997728508</v>
+        <v>-1.2426559923493072</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.2421619277920135</v>
+        <v>-1.0242660284523093</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.0238879841721746</v>
+        <v>-0.858391569512827</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.8581069227744641</v>
+        <v>-0.7345359551472926</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.734325305618287</v>
+        <v>-0.6433910106074122</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.6432365110905556</v>
+        <v>-0.5761281897684409</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.5760125116144741</v>
+        <v>-0.524201625045154</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.5241083450596681</v>
+        <v>-0.4800006692651506</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.4799164334134793</v>
+        <v>-0.4381597514004124</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.4380769476469815</v>
+        <v>-0.3964988250191647</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.39641625308678713</v>
+        <v>-0.3555748780144096</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.35549537743763215</v>
+        <v>-0.31707201097436105</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.31699889699528844</v>
+        <v>-0.28226372813703543</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.2821985579675429</v>
+        <v>-0.25143177174587955</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.25137422794818154</v>
+        <v>-0.22416495805275405</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.22411392369872116</v>
+        <v>-0.19991076038818353</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.19986525140154765</v>
+        <v>-0.1782628430815793</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.17822221185387616</v>
+        <v>-0.15894159720509454</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.15890534709879783</v>
+        <v>-0.14170758798676764</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.141675258253105</v>
+        <v>-0.12633775809939599</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.12630892583159348</v>
+        <v>-0.11263098918871052</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.11260527748720035</v>
+        <v>-0.10040813709891122</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.10038520974674191</v>
+        <v>-0.08950921958823262</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.08948877621939665</v>
+        <v>-0.0797913503280113</v>
       </c>
       <c r="AV2" t="n">
         <v>-0.07977312273894237</v>
@@ -362,145 +362,145 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.6553507622343828</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>2.083963140009709</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.6235541542005882</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>3.302858993941274</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>4.158053119045587</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>5.234678735156487</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>6.590070082267051</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>8.296406692070468</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>10.4445572112267</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>13.148918488151311</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>16.553507622343826</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>20.839631400097087</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>26.235541542005883</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>33.02858993941274</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>41.58053119045587</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>52.34678735156487</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9007008226705</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>82.96406692070468</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>104.44557211226699</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>131.4891848815131</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>165.53507622343827</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>208.39631400097088</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>262.3554154200588</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>330.2858993941274</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>415.8053119045587</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>523.4678735156486</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>659.0070082267051</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>829.6406692070468</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>1044.45572112267</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1314.891848815131</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1655.3507622343827</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>2083.9631400097087</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2623.5541542005885</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>3302.858993941274</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>4158.053119045587</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5234.678735156487</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>6590.070082267051</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>8296.406692070468</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>10444.557211226698</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>13148.91848815131</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>16553.507622343826</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>20839.63140009709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>26235.541542005885</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>33028.58993941274</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>41580.53119045587</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>52346.78735156487</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
-        <v>65900.70082267051</v>
+        <v>#NUM!</v>
       </c>
       <c r="AV3" t="n">
         <v>82964.06692070469</v>
@@ -521,145 +521,145 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.7166664359903239</v>
+        <v>0.7166663014038591</v>
       </c>
       <c r="B1" t="n">
-        <v>0.7166663010693493</v>
+        <v>0.7166660877642499</v>
       </c>
       <c r="C1" t="n">
-        <v>0.7166660872340876</v>
+        <v>0.7166657491684693</v>
       </c>
       <c r="D1" t="n">
-        <v>0.7166657483282194</v>
+        <v>0.7166652125307784</v>
       </c>
       <c r="E1" t="n">
-        <v>0.7166652111990734</v>
+        <v>0.7166643620185027</v>
       </c>
       <c r="F1" t="n">
-        <v>0.7166643599078961</v>
+        <v>0.7166630140502697</v>
       </c>
       <c r="G1" t="n">
-        <v>0.7166630107051924</v>
+        <v>0.7166608776718363</v>
       </c>
       <c r="H1" t="n">
-        <v>0.7166608723702682</v>
+        <v>0.7166574917584008</v>
       </c>
       <c r="I1" t="n">
-        <v>0.7166574833560371</v>
+        <v>0.716652125492991</v>
       </c>
       <c r="J1" t="n">
-        <v>0.7166521121762811</v>
+        <v>0.716643620650488</v>
       </c>
       <c r="K1" t="n">
-        <v>0.7166435995452757</v>
+        <v>0.7166301416728414</v>
       </c>
       <c r="L1" t="n">
-        <v>0.7166301082242156</v>
+        <v>0.7166087796614488</v>
       </c>
       <c r="M1" t="n">
-        <v>0.7166087266511703</v>
+        <v>0.716574924991854</v>
       </c>
       <c r="N1" t="n">
-        <v>0.7165748409818283</v>
+        <v>0.7165212735976335</v>
       </c>
       <c r="O1" t="n">
-        <v>0.7165211404648918</v>
+        <v>0.7164362536336126</v>
       </c>
       <c r="P1" t="n">
-        <v>0.7164360426684377</v>
+        <v>0.7163015360463242</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.716301201781022</v>
+        <v>0.716088099993086</v>
       </c>
       <c r="R1" t="n">
-        <v>0.7160875704552498</v>
+        <v>0.7157500261945282</v>
       </c>
       <c r="S1" t="n">
-        <v>0.7157491875515695</v>
+        <v>0.7152147402899302</v>
       </c>
       <c r="T1" t="n">
-        <v>0.7152134127672733</v>
+        <v>0.714367774396966</v>
       </c>
       <c r="U1" t="n">
-        <v>0.714365674830587</v>
+        <v>0.7130292536074314</v>
       </c>
       <c r="V1" t="n">
-        <v>0.7130259381379384</v>
+        <v>0.71091842889265</v>
       </c>
       <c r="W1" t="n">
-        <v>0.7109132078586681</v>
+        <v>0.707602379685867</v>
       </c>
       <c r="X1" t="n">
-        <v>0.7075941980214844</v>
+        <v>0.7024273196688038</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.7024146052377758</v>
+        <v>0.6944393417026562</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.6944198502081811</v>
+        <v>0.6823216046642836</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.6822923461788049</v>
+        <v>0.6644132978834612</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.6643707260464475</v>
+        <v>0.6389284472412926</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.6388691912729801</v>
+        <v>0.6045102595749232</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.6044326041260414</v>
+        <v>0.5611088514448154</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.5610146085785434</v>
+        <v>0.510758866419968</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.51065430080649</v>
+        <v>0.4574631042980441</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.45735737789854214</v>
+        <v>0.40580169717796233</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.40570318998421206</v>
+        <v>0.35909166308694773</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.35900485580745983</v>
+        <v>0.31847210375419954</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.3183972187628434</v>
+        <v>0.283365232187945</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.28330015051387347</v>
+        <v>0.2525942317951799</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.25253668554210496</v>
+        <v>0.22522644558635166</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.225175048838509</v>
+        <v>0.20076387348641708</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.20071794561442782</v>
+        <v>0.17892832962122415</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.17888737725107898</v>
+        <v>0.15946755888491435</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.15943106832633186</v>
+        <v>0.1421257828666407</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.1420932622981649</v>
+        <v>0.1266699479406017</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.12664096345768894</v>
+        <v>0.11289478241479696</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.1128689498909728</v>
+        <v>0.10061763607551492</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.10059461278567312</v>
+        <v>0.08967560241178421</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.08965508285499674</v>
+        <v>0.07992349290941708</v>
       </c>
       <c r="AV1" t="n">
         <v>0.07990520481592539</v>
@@ -667,145 +667,145 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-290.9103330788858</v>
+        <v>-231.18423789462827</v>
       </c>
       <c r="B2" t="n">
-        <v>-231.07845095348708</v>
+        <v>-183.63636843532862</v>
       </c>
       <c r="C2" t="n">
-        <v>-183.55233897306462</v>
+        <v>-145.86780522835372</v>
       </c>
       <c r="D2" t="n">
-        <v>-145.80105836968605</v>
+        <v>-115.86723455890909</v>
       </c>
       <c r="E2" t="n">
-        <v>-115.8142157902193</v>
+        <v>-92.0370166406924</v>
       </c>
       <c r="F2" t="n">
-        <v>-91.9949025192124</v>
+        <v>-73.10810547119188</v>
       </c>
       <c r="G2" t="n">
-        <v>-73.0746532663801</v>
+        <v>-58.07246750393777</v>
       </c>
       <c r="H2" t="n">
-        <v>-58.04589576389819</v>
+        <v>-46.12940018531209</v>
       </c>
       <c r="I2" t="n">
-        <v>-46.10829386798188</v>
+        <v>-36.64289162174081</v>
       </c>
       <c r="J2" t="n">
-        <v>-36.626126738734854</v>
+        <v>-29.107750623038953</v>
       </c>
       <c r="K2" t="n">
-        <v>-29.09443438315843</v>
+        <v>-23.122703421175263</v>
       </c>
       <c r="L2" t="n">
-        <v>-23.11212668599821</v>
+        <v>-18.36902436256576</v>
       </c>
       <c r="M2" t="n">
-        <v>-18.36062388219528</v>
+        <v>-14.593562572222455</v>
       </c>
       <c r="N2" t="n">
-        <v>-14.586890990086111</v>
+        <v>-11.595260681505536</v>
       </c>
       <c r="O2" t="n">
-        <v>-11.589962710807287</v>
+        <v>-9.214447660099133</v>
       </c>
       <c r="P2" t="n">
-        <v>-9.210241163143488</v>
+        <v>-7.324335491372053</v>
       </c>
       <c r="Q2" t="n">
-        <v>-7.3209964539856225</v>
+        <v>-5.824266727300325</v>
       </c>
       <c r="R2" t="n">
-        <v>-5.8216173278223415</v>
+        <v>-4.634353067223155</v>
       </c>
       <c r="S2" t="n">
-        <v>-4.632252203966078</v>
+        <v>-3.6912189134545184</v>
       </c>
       <c r="T2" t="n">
-        <v>-3.689554684714618</v>
+        <v>-2.944622159095841</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.9433058922776696</v>
+        <v>-2.3547700996656182</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.3537316056301902</v>
+        <v>-1.8901832999512023</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.88936708840523</v>
+        <v>-1.5259857050244983</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.5253479384834978</v>
+        <v>-1.2425161281276196</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.2420221176684827</v>
+        <v>-1.0241661030039613</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.0237881639011372</v>
+        <v>-0.858356647000023</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.8580721514400552</v>
+        <v>-0.7345846177157024</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.7343741446684539</v>
+        <v>-0.6435279736596945</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.6433736423110148</v>
+        <v>-0.5763394026857622</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.5762238449252377</v>
+        <v>-0.5244540901466817</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.524360849370485</v>
+        <v>-0.48024945539853936</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.48016516630905265</v>
+        <v>-0.43836253639892453</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.43827960945538064</v>
+        <v>-0.3966322454384913</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.3965495303335299</v>
+        <v>-0.35564237471440735</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.35556276223185096</v>
+        <v>-0.3170968349801678</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.31702366417564404</v>
+        <v>-0.2822719486815689</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.2822067652677942</v>
+        <v>-0.2514384181516221</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.25138087691931565</v>
+        <v>-0.2241726422140058</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.22412160792348595</v>
+        <v>-0.19991729604703937</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.19987178308679485</v>
+        <v>-0.17826730929033915</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.1782266743633154</v>
+        <v>-0.15894460512912764</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.1589083528516966</v>
+        <v>-0.1417097223522537</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.14167739119845366</v>
+        <v>-0.12633927760252608</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.12631044429321392</v>
+        <v>-0.11263206404961693</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.1126063516091155</v>
+        <v>-0.10040889798618309</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.1003859701120105</v>
+        <v>-0.08950975828446599</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.08948931454592715</v>
+        <v>-0.07979173169957415</v>
       </c>
       <c r="AV2" t="n">
         <v>-0.07977350384877838</v>
@@ -813,145 +813,145 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.6553507622343828</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>2.083963140009709</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.6235541542005882</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>3.302858993941274</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>4.158053119045587</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>5.234678735156487</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>6.590070082267051</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>8.296406692070468</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>10.4445572112267</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>13.148918488151311</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>16.553507622343826</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>20.839631400097087</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>26.235541542005883</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>33.02858993941274</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>41.58053119045587</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>52.34678735156487</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9007008226705</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>82.96406692070468</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>104.44557211226699</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>131.4891848815131</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>165.53507622343827</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>208.39631400097088</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>262.3554154200588</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>330.2858993941274</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>415.8053119045587</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>523.4678735156486</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>659.0070082267051</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>829.6406692070468</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>1044.45572112267</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1314.891848815131</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1655.3507622343827</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>2083.9631400097087</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2623.5541542005885</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>3302.858993941274</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>4158.053119045587</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5234.678735156487</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>6590.070082267051</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>8296.406692070468</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>10444.557211226698</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>13148.91848815131</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>16553.507622343826</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>20839.63140009709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>26235.541542005885</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>33028.58993941274</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>41580.53119045587</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>52346.78735156487</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
-        <v>65900.70082267051</v>
+        <v>#NUM!</v>
       </c>
       <c r="AV3" t="n">
         <v>82964.06692070469</v>
@@ -972,145 +972,145 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.7172724881553656</v>
+        <v>0.7172723486441253</v>
       </c>
       <c r="B1" t="n">
-        <v>0.7172723482973751</v>
+        <v>0.7172721271871505</v>
       </c>
       <c r="C1" t="n">
-        <v>0.7172721266375892</v>
+        <v>0.7172717762019784</v>
       </c>
       <c r="D1" t="n">
-        <v>0.7172717753309837</v>
+        <v>0.7172712199291725</v>
       </c>
       <c r="E1" t="n">
-        <v>0.7172712185487428</v>
+        <v>0.7172703382992144</v>
       </c>
       <c r="F1" t="n">
-        <v>0.7172703361113898</v>
+        <v>0.7172689410174934</v>
       </c>
       <c r="G1" t="n">
-        <v>0.7172689375500484</v>
+        <v>0.7172667264942909</v>
       </c>
       <c r="H1" t="n">
-        <v>0.7172667209988189</v>
+        <v>0.7172632167594799</v>
       </c>
       <c r="I1" t="n">
-        <v>0.7172632080498896</v>
+        <v>0.7172576543250746</v>
       </c>
       <c r="J1" t="n">
-        <v>0.717257640521671</v>
+        <v>0.71724883876306</v>
       </c>
       <c r="K1" t="n">
-        <v>0.7172488168870601</v>
+        <v>0.7172348677983155</v>
       </c>
       <c r="L1" t="n">
-        <v>0.7172348331295041</v>
+        <v>0.7172127272185952</v>
       </c>
       <c r="M1" t="n">
-        <v>0.7172126722780376</v>
+        <v>0.7171776415530643</v>
       </c>
       <c r="N1" t="n">
-        <v>0.7171775544927237</v>
+        <v>0.7171220465405154</v>
       </c>
       <c r="O1" t="n">
-        <v>0.7171219085957542</v>
+        <v>0.7170339645431045</v>
       </c>
       <c r="P1" t="n">
-        <v>0.7170337460071556</v>
+        <v>0.7168944396118717</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.7168940934857585</v>
+        <v>0.7166734969537478</v>
       </c>
       <c r="R1" t="n">
-        <v>0.7166729489567639</v>
+        <v>0.7163238003507943</v>
       </c>
       <c r="S1" t="n">
-        <v>0.7163229332736205</v>
+        <v>0.7157707514346989</v>
       </c>
       <c r="T1" t="n">
-        <v>0.7157693807986731</v>
+        <v>0.7148971708513668</v>
       </c>
       <c r="U1" t="n">
-        <v>0.7148950074532114</v>
+        <v>0.7135199282476761</v>
       </c>
       <c r="V1" t="n">
-        <v>0.7135165215211273</v>
+        <v>0.7113550957639031</v>
       </c>
       <c r="W1" t="n">
-        <v>0.7113497505552955</v>
+        <v>0.7079679471384563</v>
       </c>
       <c r="X1" t="n">
-        <v>0.7079596073095303</v>
+        <v>0.702705975234419</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.7026930752229027</v>
+        <v>0.6946206943179226</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.6946010045420014</v>
+        <v>0.6824040096295938</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.6823745593649541</v>
+        <v>0.6644048558379086</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.6643621176705213</v>
+        <v>0.6388463778950128</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.6387869985130087</v>
+        <v>0.6043804860883799</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.604302767284798</v>
+        <v>0.5609651261716133</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.5608708923321852</v>
+        <v>0.5106370523328303</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.5105325613818783</v>
+        <v>0.45738831736169294</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.4572826952023576</v>
+        <v>0.40577618180546554</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.405677758616553</v>
+        <v>0.35909649591001197</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.3590097236080665</v>
+        <v>0.3184834987908193</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.3184086089866254</v>
+        <v>0.2833702906453981</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.283305193309541</v>
+        <v>0.2525931477606074</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.252535594224803</v>
+        <v>0.22522407791349008</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.225172682242255</v>
+        <v>0.2007625863216013</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.20071666068891783</v>
+        <v>0.17892777498291912</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.1788868233044631</v>
+        <v>0.1594671662433181</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.15943067583498755</v>
+        <v>0.14212547487082638</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.14209295449535286</v>
+        <v>0.1266697311320397</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.1266407468046946</v>
+        <v>0.11289462975895624</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.11286879733929223</v>
+        <v>0.10061752780450267</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.10059450458882306</v>
+        <v>0.08967552573501568</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.08965500623079502</v>
+        <v>0.07992343860442042</v>
       </c>
       <c r="AV1" t="n">
         <v>0.0799051505481569</v>
@@ -1118,145 +1118,145 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-290.91033565695363</v>
+        <v>-231.18424113871868</v>
       </c>
       <c r="B2" t="n">
-        <v>-231.07845419906255</v>
+        <v>-183.63637251935734</v>
       </c>
       <c r="C2" t="n">
-        <v>-183.5523430589629</v>
+        <v>-145.86781036976322</v>
       </c>
       <c r="D2" t="n">
-        <v>-145.80106351344907</v>
+        <v>-115.86724103140443</v>
       </c>
       <c r="E2" t="n">
-        <v>-115.81422226567734</v>
+        <v>-92.03702478877062</v>
       </c>
       <c r="F2" t="n">
-        <v>-91.99491067102002</v>
+        <v>-73.10811572839484</v>
       </c>
       <c r="G2" t="n">
-        <v>-73.07466352827724</v>
+        <v>-58.072480415754825</v>
       </c>
       <c r="H2" t="n">
-        <v>-58.045908681623175</v>
+        <v>-46.12941643786032</v>
       </c>
       <c r="I2" t="n">
-        <v>-46.10831012796437</v>
+        <v>-36.64291207756763</v>
       </c>
       <c r="J2" t="n">
-        <v>-36.62614720391411</v>
+        <v>-29.10777636559014</v>
       </c>
       <c r="K2" t="n">
-        <v>-29.094460137470172</v>
+        <v>-23.122735809574472</v>
       </c>
       <c r="L2" t="n">
-        <v>-23.11215908917626</v>
+        <v>-18.369065098191587</v>
       </c>
       <c r="M2" t="n">
-        <v>-18.360664636373198</v>
+        <v>-14.593613777803709</v>
       </c>
       <c r="N2" t="n">
-        <v>-14.58694221891699</v>
+        <v>-11.595324991405894</v>
       </c>
       <c r="O2" t="n">
-        <v>-11.590027049766908</v>
+        <v>-9.214528315840981</v>
       </c>
       <c r="P2" t="n">
-        <v>-9.210321855053442</v>
+        <v>-7.3244364269368285</v>
       </c>
       <c r="Q2" t="n">
-        <v>-7.321097434267757</v>
+        <v>-5.824392610526802</v>
       </c>
       <c r="R2" t="n">
-        <v>-5.821743265757752</v>
+        <v>-4.634509231490279</v>
       </c>
       <c r="S2" t="n">
-        <v>-4.632408434064016</v>
+        <v>-3.6914110638196482</v>
       </c>
       <c r="T2" t="n">
-        <v>-3.689746912246147</v>
+        <v>-2.9448556765509517</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.943539496525136</v>
+        <v>-2.355048739502284</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.354010336882436</v>
+        <v>-1.8905071984223065</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.8896910733784575</v>
+        <v>-1.5263490329983151</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.5257113340697315</v>
+        <v>-1.2429054356610758</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.242411458327847</v>
+        <v>-1.0245607583187413</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.0241828058259332</v>
+        <v>-0.8587318101426599</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.8584472503666427</v>
+        <v>-0.7349152772495077</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.7347046924361925</v>
+        <v>-0.643792156715074</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.6436376746326277</v>
+        <v>-0.5765209650921392</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.5764052329853045</v>
+        <v>-0.5245475086872701</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.524454097685448</v>
+        <v>-0.48026632436772076</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.48018190785000153</v>
+        <v>-0.43833283424896863</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.43824985237635977</v>
+        <v>-0.39659298094828926</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.3965102786670084</v>
+        <v>-0.3556188814921485</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.3555393111957682</v>
+        <v>-0.31709308191869345</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.3170199424466662</v>
+        <v>-0.2822777598809384</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.2822125834671412</v>
+        <v>-0.25144375687118303</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.2513862095383432</v>
+        <v>-0.2241747490245769</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.22412370951726157</v>
+        <v>-0.19991788866885823</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.1998723746255838</v>
+        <v>-0.17826777676976308</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.1782271419381628</v>
+        <v>-0.15894504927064568</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.15890879678200334</v>
+        <v>-0.14171003626387224</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.14167770486296782</v>
+        <v>-0.1263394935311175</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.12631066007245337</v>
+        <v>-0.11263221755829869</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.1126065050134545</v>
+        <v>-0.10040900671385078</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.10038607876493327</v>
+        <v>-0.08950983524406579</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.08948939145271782</v>
+        <v>-0.07979178618408865</v>
       </c>
       <c r="AV2" t="n">
         <v>-0.07977355829589954</v>
@@ -1264,145 +1264,145 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.6553507622343828</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>2.083963140009709</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.6235541542005882</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>3.302858993941274</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>4.158053119045587</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>5.234678735156487</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>6.590070082267051</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>8.296406692070468</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>10.4445572112267</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>13.148918488151311</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>16.553507622343826</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>20.839631400097087</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>26.235541542005883</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>33.02858993941274</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>41.58053119045587</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>52.34678735156487</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9007008226705</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>82.96406692070468</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>104.44557211226699</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>131.4891848815131</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>165.53507622343827</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>208.39631400097088</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>262.3554154200588</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>330.2858993941274</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>415.8053119045587</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>523.4678735156486</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>659.0070082267051</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>829.6406692070468</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>1044.45572112267</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1314.891848815131</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1655.3507622343827</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>2083.9631400097087</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2623.5541542005885</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>3302.858993941274</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>4158.053119045587</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5234.678735156487</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>6590.070082267051</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>8296.406692070468</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>10444.557211226698</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>13148.91848815131</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>16553.507622343826</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>20839.63140009709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>26235.541542005885</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>33028.58993941274</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>41580.53119045587</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>52346.78735156487</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
-        <v>65900.70082267051</v>
+        <v>#NUM!</v>
       </c>
       <c r="AV3" t="n">
         <v>82964.06692070469</v>
@@ -1423,145 +1423,145 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.7166664293403278</v>
+        <v>0.716666290874041</v>
       </c>
       <c r="B1" t="n">
-        <v>0.716666290529888</v>
+        <v>0.7166660710757937</v>
       </c>
       <c r="C1" t="n">
-        <v>0.7166660705303486</v>
+        <v>0.7166657227195034</v>
       </c>
       <c r="D1" t="n">
-        <v>0.7166657218550325</v>
+        <v>0.7166651706131345</v>
       </c>
       <c r="E1" t="n">
-        <v>0.716665169243044</v>
+        <v>0.716664295586383</v>
       </c>
       <c r="F1" t="n">
-        <v>0.7166642934149446</v>
+        <v>0.7166629087696607</v>
       </c>
       <c r="G1" t="n">
-        <v>0.7166629053281847</v>
+        <v>0.7166607108314115</v>
       </c>
       <c r="H1" t="n">
-        <v>0.7166607053770948</v>
+        <v>0.7166572273795906</v>
       </c>
       <c r="I1" t="n">
-        <v>0.7166572187352199</v>
+        <v>0.7166517065949175</v>
       </c>
       <c r="J1" t="n">
-        <v>0.7166516928948615</v>
+        <v>0.7166429570282175</v>
       </c>
       <c r="K1" t="n">
-        <v>0.7166429353159668</v>
+        <v>0.7166290906211983</v>
       </c>
       <c r="L1" t="n">
-        <v>0.716629056211797</v>
+        <v>0.7166071156594995</v>
       </c>
       <c r="M1" t="n">
-        <v>0.7166070611297908</v>
+        <v>0.7165722922432664</v>
       </c>
       <c r="N1" t="n">
-        <v>0.7165722058333548</v>
+        <v>0.7165171122733098</v>
       </c>
       <c r="O1" t="n">
-        <v>0.7165169753576032</v>
+        <v>0.7164296865894971</v>
       </c>
       <c r="P1" t="n">
-        <v>0.7164294696799848</v>
+        <v>0.7162911981508013</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.7162908545912271</v>
+        <v>0.7160718890780923</v>
       </c>
       <c r="R1" t="n">
-        <v>0.7160713451211849</v>
+        <v>0.7157247590862187</v>
       </c>
       <c r="S1" t="n">
-        <v>0.715723898344663</v>
+        <v>0.715175723572902</v>
       </c>
       <c r="T1" t="n">
-        <v>0.7151743628157823</v>
+        <v>0.7143083744819566</v>
       </c>
       <c r="U1" t="n">
-        <v>0.7143062263588696</v>
+        <v>0.7129407092982656</v>
       </c>
       <c r="V1" t="n">
-        <v>0.7129373259118374</v>
+        <v>0.710790392445194</v>
       </c>
       <c r="W1" t="n">
-        <v>0.7107850823378485</v>
+        <v>0.7074248510429083</v>
       </c>
       <c r="X1" t="n">
-        <v>0.7074165629642438</v>
+        <v>0.7021943518180156</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.702181526343177</v>
+        <v>0.6941537737827161</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.6941341884847496</v>
+        <v>0.6819986657658812</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.6819693569086344</v>
+        <v>0.6640807689399423</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.6640382124048493</v>
+        <v>0.6386225748412206</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.6385634100129561</v>
+        <v>0.6042679734987967</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.6041904766046117</v>
+        <v>0.5609572866128496</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.5608632389853115</v>
+        <v>0.510704765320618</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.5106003830890026</v>
+        <v>0.45748785458891844</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.4573822515502856</v>
+        <v>0.40586794011842664</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.40576947381255296</v>
+        <v>0.3591604283517098</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.3590735957008868</v>
+        <v>0.31852001735164176</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.3184450822468361</v>
+        <v>0.28338982586292133</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.283324705796548</v>
+        <v>0.2526052411611728</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.25254767886348584</v>
+        <v>0.22523309807563913</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.22518169778626348</v>
+        <v>0.20076943324366447</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.20072350345668488</v>
+        <v>0.17893268290264208</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.17889172778964518</v>
+        <v>0.15947060972414145</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.1594341169112303</v>
+        <v>0.14212790935943714</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.14209538732107307</v>
+        <v>0.126671457341672</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.12664247183295355</v>
+        <v>0.11289585253096959</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.11287001927318525</v>
+        <v>0.10061839387457781</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.1005953700653512</v>
+        <v>0.08967613914699744</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.08965561922231065</v>
+        <v>0.07992387304233077</v>
       </c>
       <c r="AV1" t="n">
         <v>0.07990558468823959</v>
@@ -1569,145 +1569,145 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-290.91033449750864</v>
+        <v>-231.18423967973408</v>
       </c>
       <c r="B2" t="n">
-        <v>-231.07845273941004</v>
+        <v>-183.63637068260905</v>
       </c>
       <c r="C2" t="n">
-        <v>-183.55234122137378</v>
+        <v>-145.86780805744317</v>
       </c>
       <c r="D2" t="n">
-        <v>-145.80106120007045</v>
+        <v>-115.86723812038394</v>
       </c>
       <c r="E2" t="n">
-        <v>-115.81421935332423</v>
+        <v>-92.03702112404882</v>
       </c>
       <c r="F2" t="n">
-        <v>-91.99490700462061</v>
+        <v>-73.108111114855</v>
       </c>
       <c r="G2" t="n">
-        <v>-73.07465891262552</v>
+        <v>-58.07247460779509</v>
       </c>
       <c r="H2" t="n">
-        <v>-58.04590287100492</v>
+        <v>-46.12940912635708</v>
       </c>
       <c r="I2" t="n">
-        <v>-46.10830281311465</v>
+        <v>-36.64290287349865</v>
       </c>
       <c r="J2" t="n">
-        <v>-36.62613799563293</v>
+        <v>-29.107764779487212</v>
       </c>
       <c r="K2" t="n">
-        <v>-29.09444854606596</v>
+        <v>-23.122721225795225</v>
       </c>
       <c r="L2" t="n">
-        <v>-23.112144498726188</v>
+        <v>-18.36904674280683</v>
       </c>
       <c r="M2" t="n">
-        <v>-18.360646272596554</v>
+        <v>-14.593590678720345</v>
       </c>
       <c r="N2" t="n">
-        <v>-14.58691910928117</v>
+        <v>-11.595295929253995</v>
       </c>
       <c r="O2" t="n">
-        <v>-11.589997974354711</v>
+        <v>-9.21449176429065</v>
       </c>
       <c r="P2" t="n">
-        <v>-9.210285286857891</v>
+        <v>-7.324390481759881</v>
       </c>
       <c r="Q2" t="n">
-        <v>-7.3210514682316115</v>
+        <v>-5.824334908409257</v>
       </c>
       <c r="R2" t="n">
-        <v>-5.821685537568592</v>
+        <v>-4.634436863245141</v>
       </c>
       <c r="S2" t="n">
-        <v>-4.6323360333644485</v>
+        <v>-3.691320493628452</v>
       </c>
       <c r="T2" t="n">
-        <v>-3.689656301905888</v>
+        <v>-2.9447426908150596</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.9434264615855605</v>
+        <v>-2.354908466711828</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.353870004622286</v>
+        <v>-1.8903342635536393</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.8895180680571682</v>
+        <v>-1.5261379328789038</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.5255001528339829</v>
+        <v>-1.242651251484693</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.2421571845473582</v>
+        <v>-1.0242603901521468</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.0238823449003354</v>
+        <v>-0.8583860354751155</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.85810139025694</v>
+        <v>-0.7345318852511707</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.7343212399721694</v>
+        <v>-0.643389602855668</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.6432351094535663</v>
+        <v>-0.5761300036777763</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.5760143319304871</v>
+        <v>-0.5242063850431786</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.524113110108286</v>
+        <v>-0.48000735407962436</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.4799231206595734</v>
+        <v>-0.43816685184716614</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.43808404726562206</v>
+        <v>-0.3965047270962603</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.39642215137623554</v>
+        <v>-0.35557844368914704</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.3554989379849587</v>
+        <v>-0.3170731691770637</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.31700005113718743</v>
+        <v>-0.28226345417307364</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.2821982824441307</v>
+        <v>-0.2514312488029419</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.2513737053367942</v>
+        <v>-0.2241647433337758</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.22411370964138666</v>
+        <v>-0.19991077008609576</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.19986526130171584</v>
+        <v>-0.1782628721226286</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.17822224083656535</v>
+        <v>-0.15894159863542826</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.15890534849871915</v>
+        <v>-0.14170758564541602</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.141675255917073</v>
+        <v>-0.126337757926833</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.1263089256605875</v>
+        <v>-0.11263098911368707</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.11260527741198408</v>
+        <v>-0.10040813702446978</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.10038520967240312</v>
+        <v>-0.08950921955064575</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.0894887761818531</v>
+        <v>-0.07979135030664128</v>
       </c>
       <c r="AV2" t="n">
         <v>-0.07977312271759683</v>
@@ -1715,145 +1715,145 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.6553507622343828</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>2.083963140009709</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.6235541542005882</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>3.302858993941274</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>4.158053119045587</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>5.234678735156487</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>6.590070082267051</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>8.296406692070468</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>10.4445572112267</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>13.148918488151311</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>16.553507622343826</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>20.839631400097087</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>26.235541542005883</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>33.02858993941274</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>41.58053119045587</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>52.34678735156487</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9007008226705</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>82.96406692070468</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>104.44557211226699</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>131.4891848815131</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>165.53507622343827</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>208.39631400097088</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>262.3554154200588</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>330.2858993941274</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>415.8053119045587</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>523.4678735156486</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>659.0070082267051</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>829.6406692070468</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>1044.45572112267</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1314.891848815131</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1655.3507622343827</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>2083.9631400097087</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2623.5541542005885</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>3302.858993941274</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>4158.053119045587</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5234.678735156487</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>6590.070082267051</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>8296.406692070468</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>10444.557211226698</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>13148.91848815131</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>16553.507622343826</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>20839.63140009709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>26235.541542005885</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>33028.58993941274</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>41580.53119045587</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>52346.78735156487</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
-        <v>65900.70082267051</v>
+        <v>#NUM!</v>
       </c>
       <c r="AV3" t="n">
         <v>82964.06692070469</v>

--- a/lin_R1_by_R2 (1.1 by 1)1000.xlsx
+++ b/lin_R1_by_R2 (1.1 by 1)1000.xlsx
@@ -362,145 +362,145 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>2.0830095416470376</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>2.622353644989176</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>3.3013476423879338</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>4.156150440168933</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>5.232283404368183</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>6.587054539468002</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>8.292610348610392</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>10.439777897972911</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>13.142901689245193</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>16.545932921303258</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>20.830095416470375</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>26.22353644989176</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>33.01347642387934</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>41.56150440168933</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>52.32283404368183</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>65.87054539468002</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>82.92610348610393</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>104.39777897972911</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>131.42901689245193</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>165.4593292130326</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>208.30095416470374</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>262.2353644989176</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>330.13476423879337</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>415.61504401689325</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>523.2283404368183</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>658.7054539468002</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>829.2610348610392</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>1043.977789797291</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>1314.290168924519</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>1654.5932921303258</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>2083.009541647037</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>2622.353644989176</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>3301.347642387934</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>4156.150440168933</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>5232.283404368182</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>6587.054539468001</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>8292.610348610393</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>10439.77789797291</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>13142.901689245193</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>16545.932921303258</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>20830.095416470373</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>26223.53644989176</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>33013.476423879336</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>41561.50440168932</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>52322.834043681825</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>65870.54539468001</v>
       </c>
       <c r="AU3" t="n">
-        <v>#NUM!</v>
+        <v>82926.10348610392</v>
       </c>
       <c r="AV3" t="n">
         <v>82964.06692070469</v>
@@ -813,145 +813,145 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>2.0830095416470376</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>2.622353644989176</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>3.3013476423879338</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>4.156150440168933</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>5.232283404368183</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>6.587054539468002</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>8.292610348610392</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>10.439777897972911</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>13.142901689245193</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>16.545932921303258</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>20.830095416470375</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>26.22353644989176</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>33.01347642387934</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>41.56150440168933</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>52.32283404368183</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>65.87054539468002</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>82.92610348610393</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>104.39777897972911</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>131.42901689245193</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>165.4593292130326</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>208.30095416470374</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>262.2353644989176</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>330.13476423879337</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>415.61504401689325</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>523.2283404368183</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>658.7054539468002</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>829.2610348610392</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>1043.977789797291</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>1314.290168924519</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>1654.5932921303258</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>2083.009541647037</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>2622.353644989176</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>3301.347642387934</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>4156.150440168933</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>5232.283404368182</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>6587.054539468001</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>8292.610348610393</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>10439.77789797291</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>13142.901689245193</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>16545.932921303258</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>20830.095416470373</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>26223.53644989176</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>33013.476423879336</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>41561.50440168932</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>52322.834043681825</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>65870.54539468001</v>
       </c>
       <c r="AU3" t="n">
-        <v>#NUM!</v>
+        <v>82926.10348610392</v>
       </c>
       <c r="AV3" t="n">
         <v>82964.06692070469</v>
@@ -1264,145 +1264,145 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>2.0830095416470376</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>2.622353644989176</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>3.3013476423879338</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>4.156150440168933</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>5.232283404368183</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>6.587054539468002</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>8.292610348610392</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>10.439777897972911</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>13.142901689245193</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>16.545932921303258</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>20.830095416470375</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>26.22353644989176</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>33.01347642387934</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>41.56150440168933</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>52.32283404368183</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>65.87054539468002</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>82.92610348610393</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>104.39777897972911</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>131.42901689245193</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>165.4593292130326</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>208.30095416470374</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>262.2353644989176</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>330.13476423879337</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>415.61504401689325</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>523.2283404368183</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>658.7054539468002</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>829.2610348610392</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>1043.977789797291</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>1314.290168924519</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>1654.5932921303258</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>2083.009541647037</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>2622.353644989176</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>3301.347642387934</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>4156.150440168933</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>5232.283404368182</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>6587.054539468001</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>8292.610348610393</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>10439.77789797291</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>13142.901689245193</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>16545.932921303258</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>20830.095416470373</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>26223.53644989176</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>33013.476423879336</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>41561.50440168932</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>52322.834043681825</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>65870.54539468001</v>
       </c>
       <c r="AU3" t="n">
-        <v>#NUM!</v>
+        <v>82926.10348610392</v>
       </c>
       <c r="AV3" t="n">
         <v>82964.06692070469</v>
@@ -1715,145 +1715,145 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>2.0830095416470376</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>2.622353644989176</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>3.3013476423879338</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>4.156150440168933</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>5.232283404368183</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>6.587054539468002</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>8.292610348610392</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>10.439777897972911</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>13.142901689245193</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>16.545932921303258</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>20.830095416470375</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>26.22353644989176</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>33.01347642387934</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>41.56150440168933</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>52.32283404368183</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>65.87054539468002</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>82.92610348610393</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>104.39777897972911</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>131.42901689245193</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>165.4593292130326</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>208.30095416470374</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>262.2353644989176</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>330.13476423879337</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>415.61504401689325</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>523.2283404368183</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>658.7054539468002</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>829.2610348610392</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>1043.977789797291</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>1314.290168924519</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>1654.5932921303258</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>2083.009541647037</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>2622.353644989176</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>3301.347642387934</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>4156.150440168933</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>5232.283404368182</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>6587.054539468001</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>8292.610348610393</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>10439.77789797291</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>13142.901689245193</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>16545.932921303258</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>20830.095416470373</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>26223.53644989176</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>33013.476423879336</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>41561.50440168932</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>52322.834043681825</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>65870.54539468001</v>
       </c>
       <c r="AU3" t="n">
-        <v>#NUM!</v>
+        <v>82926.10348610392</v>
       </c>
       <c r="AV3" t="n">
         <v>82964.06692070469</v>
